--- a/input_sample/M18104948C/M18104948C_crn_stk.xlsx
+++ b/input_sample/M18104948C/M18104948C_crn_stk.xlsx
@@ -112,7 +112,7 @@
     <t>-0.0658</t>
   </si>
   <si>
-    <t>-0.0566</t>
+    <t>-0.1766</t>
   </si>
   <si>
     <t>-0.0000</t>
@@ -214,10 +214,10 @@
     <t>-0.0300</t>
   </si>
   <si>
-    <t>-0.4006</t>
-  </si>
-  <si>
-    <t>-0.3504</t>
+    <t>-0.6006</t>
+  </si>
+  <si>
+    <t>-0.5504</t>
   </si>
   <si>
     <t>-0.0503</t>

--- a/input_sample/M18104948C/M18104948C_crn_stk.xlsx
+++ b/input_sample/M18104948C/M18104948C_crn_stk.xlsx
@@ -214,10 +214,10 @@
     <t>-0.0300</t>
   </si>
   <si>
-    <t>-0.6006</t>
-  </si>
-  <si>
-    <t>-0.5504</t>
+    <t>-0.1006</t>
+  </si>
+  <si>
+    <t>-0.1504</t>
   </si>
   <si>
     <t>-0.0503</t>
